--- a/bh3/560122185616262047_2021-08-18_10-00-09.xlsx
+++ b/bh3/560122185616262047_2021-08-18_10-00-09.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5189558233</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-19 23:34:40</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44427.98240740741</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>5189555211</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-19 23:31:22</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44427.98011574074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>5194229778</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-19 18:46:31</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44427.78230324074</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-19 02:00:59</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44427.08401620371</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>5190253392</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:41:35</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44427.02887731481</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>5194229778</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:47:45</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44426.99149305555</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -985,10 +989,8 @@
           <t>5195190223</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:04:04</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44426.91949074074</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>5189739885</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:53:23</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44426.91207175926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>5195081804</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:52:56</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44426.91175925926</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>5195080606</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:52:35</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44426.91151620371</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1281,10 +1277,8 @@
           <t>5190253392</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:52:12</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44426.86958333333</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1348,10 +1342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:32:41</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44426.85603009259</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1411,10 +1403,8 @@
           <t>5194229778</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:19:26</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44426.8468287037</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1490,10 +1480,8 @@
           <t>5193987539</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:53:21</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44426.82871527778</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1571,10 +1559,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:50:14</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44426.82655092593</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1652,10 +1638,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:49:45</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44426.82621527778</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1733,10 +1717,8 @@
           <t>5193937957</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:47:27</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44426.82461805556</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1814,10 +1796,8 @@
           <t>5189550911</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:37:00</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44426.81736111111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1885,10 +1865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:21:17</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44426.80644675926</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1966,10 +1944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:59:12</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44426.79111111111</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2037,10 +2013,8 @@
           <t>5193378581</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:47:37</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44426.78306712963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2108,10 +2082,8 @@
           <t>5189550911</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:35:55</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44426.73327546296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2187,10 +2159,8 @@
           <t>5191349014</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:34:07</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44426.73202546296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2266,10 +2236,8 @@
           <t>5192460126</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:13:14</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44426.71752314815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2337,10 +2305,8 @@
           <t>5189550911</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:09:58</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44426.71525462963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2408,10 +2374,8 @@
           <t>5192480136</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:08:57</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44426.71454861111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2475,10 +2439,8 @@
           <t>5190253392</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:08:46</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44426.7144212963</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2554,10 +2516,8 @@
           <t>5192460126</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:06:39</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44426.71295138889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2621,10 +2581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:42:30</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44426.69618055555</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2692,10 +2650,8 @@
           <t>5192009870</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:09:43</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44426.67341435186</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2759,10 +2715,8 @@
           <t>5189550911</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:09:08</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44426.67300925926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2838,10 +2792,8 @@
           <t>5191982031</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:05:38</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44426.67057870371</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2916,10 +2868,8 @@
           <t>5191814029</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-18 15:43:11</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44426.65498842593</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2987,10 +2937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-18 15:27:49</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44426.64431712963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3058,10 +3006,8 @@
           <t>5191706948</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-18 15:26:48</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44426.64361111111</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3133,10 +3079,8 @@
           <t>5191693883</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-18 15:25:31</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44426.64271990741</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3200,10 +3144,8 @@
           <t>5190319073</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-18 15:07:05</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44426.62991898148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3290,10 +3232,8 @@
           <t>5191559391</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-18 15:06:54</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44426.62979166667</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3353,10 +3293,8 @@
           <t>5191392566</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:42:11</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44426.61262731482</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3420,10 +3358,8 @@
           <t>5191349014</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:36:39</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44426.60878472222</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3487,10 +3423,8 @@
           <t>5190493882</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:34:14</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44426.60710648148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3566,10 +3500,8 @@
           <t>5191278335</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:26:08</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44426.60148148148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3645,10 +3577,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:25:22</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44426.60094907408</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3724,10 +3654,8 @@
           <t>5191154966</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:09:16</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44426.58976851852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3803,10 +3731,8 @@
           <t>5191152401</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:08:16</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44426.58907407407</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3882,10 +3808,8 @@
           <t>5191155234</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:07:59</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44426.58887731482</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3961,10 +3885,8 @@
           <t>5189931378</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:06:27</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44426.5878125</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4040,10 +3962,8 @@
           <t>5191140603</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:06:06</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44426.58756944445</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4119,10 +4039,8 @@
           <t>5191119977</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-18 14:04:53</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44426.58672453704</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4198,10 +4116,8 @@
           <t>5190998985</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:48:13</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44426.57515046297</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4277,10 +4193,8 @@
           <t>5189739885</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:43:18</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44426.57173611111</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4352,10 +4266,8 @@
           <t>5190957198</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:42:40</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44426.57129629629</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4427,10 +4339,8 @@
           <t>5190952929</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:42:17</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44426.57103009259</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4502,10 +4412,8 @@
           <t>5190882449</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:38:45</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44426.56857638889</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4569,10 +4477,8 @@
           <t>5190882449</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:33:02</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44426.56460648148</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4640,10 +4546,8 @@
           <t>5189604688</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:30:04</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44426.5625462963</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4711,10 +4615,8 @@
           <t>5189805396</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:24:41</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44426.55880787037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4782,10 +4684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:24:20</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44426.55856481481</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4857,10 +4757,8 @@
           <t>5189604688</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:24:15</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44426.55850694444</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4928,10 +4826,8 @@
           <t>5190797880</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:22:47</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44426.55748842593</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4999,10 +4895,8 @@
           <t>5189805396</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:22:15</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44426.55711805556</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5070,10 +4964,8 @@
           <t>5190775559</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:19:44</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44426.55537037037</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5143,10 +5035,8 @@
           <t>5190769772</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:19:36</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44426.55527777778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5222,10 +5112,8 @@
           <t>5189805396</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:19:07</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44426.55494212963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5293,10 +5181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:17:55</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44426.5541087963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5360,10 +5246,8 @@
           <t>5190757529</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:17:43</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44426.55396990741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5439,10 +5323,8 @@
           <t>5190757321</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:17:39</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44426.55392361111</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5510,10 +5392,8 @@
           <t>5189604688</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:16:16</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44426.55296296296</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5581,10 +5461,8 @@
           <t>5190729325</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:14:57</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44426.55204861111</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5648,10 +5526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:14:53</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44426.55200231481</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5719,10 +5595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:10:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44426.54861111111</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5782,10 +5656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:09:52</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44426.54851851852</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5848,10 +5720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:09:35</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44426.54832175926</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5915,10 +5785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:09:30</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44426.54826388889</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5978,10 +5846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:09:26</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44426.54821759259</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6041,10 +5907,8 @@
           <t>5190667060</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:07:15</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44426.54670138889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6120,10 +5984,8 @@
           <t>5190642072</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:04:33</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44426.54482638889</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6195,10 +6057,8 @@
           <t>5190623340</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:02:14</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44426.5432175926</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6270,10 +6130,8 @@
           <t>5190621614</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:01:38</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44426.54280092593</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6345,10 +6203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-18 13:00:38</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44426.54210648148</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6424,10 +6280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:59:31</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44426.54133101852</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6496,10 +6350,8 @@
           <t>5190253392</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:57:08</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44426.53967592592</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6563,10 +6415,8 @@
           <t>5190565930</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:55:53</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44426.53880787037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6642,10 +6492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:53:33</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44426.5371875</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6721,10 +6569,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:53:00</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44426.53680555556</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6796,10 +6642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:52:36</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44426.53652777777</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6868,10 +6712,8 @@
           <t>5190532968</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:52:36</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44426.53652777777</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6943,10 +6785,8 @@
           <t>5190515868</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:50:25</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44426.53501157407</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7010,10 +6850,8 @@
           <t>5190493882</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:49:37</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44426.53445601852</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7089,10 +6927,8 @@
           <t>5190493882</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:48:19</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44426.53355324074</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7168,10 +7004,8 @@
           <t>5190481369</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:46:04</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44426.53199074074</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7239,10 +7073,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:46:01</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44426.53195601852</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7314,10 +7146,8 @@
           <t>5190472340</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:45:50</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44426.5318287037</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7389,10 +7219,8 @@
           <t>5190468814</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:45:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44426.53145833333</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7460,10 +7288,8 @@
           <t>5189805396</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:44:46</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44426.53108796296</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7531,10 +7357,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:40:12</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44426.52791666667</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7602,10 +7426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:39:24</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44426.52736111111</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7681,10 +7503,8 @@
           <t>5190399894</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:38:11</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44426.5265162037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7760,10 +7580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:36:26</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44426.52530092592</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7835,10 +7653,8 @@
           <t>5190382622</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:36:00</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44426.525</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7902,10 +7718,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:33:10</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44426.52303240741</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7986,10 +7800,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:33:00</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44426.52291666667</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8061,10 +7873,8 @@
           <t>5190344028</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:32:10</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44426.52233796296</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8141,10 +7951,8 @@
           <t>5190345049</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:30:49</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44426.52140046296</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8212,10 +8020,8 @@
           <t>5190331131</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:29:39</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44426.52059027777</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8279,10 +8085,8 @@
           <t>5190320661</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:29:14</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44426.52030092593</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8346,10 +8150,8 @@
           <t>5190319073</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:29:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44426.52016203704</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8426,10 +8228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:28:43</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44426.51994212963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8497,10 +8297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:25:04</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44426.51740740741</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8564,10 +8362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:24:53</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44426.51728009259</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8643,10 +8439,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:23:20</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44426.5162037037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8722,10 +8516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:22:19</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44426.51549768518</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8789,10 +8581,8 @@
           <t>5190253392</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:22:10</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44426.51539351852</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8868,10 +8658,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:21:29</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44426.51491898148</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8943,10 +8731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:20:52</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44426.51449074074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9014,10 +8800,8 @@
           <t>5190233694</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:19:52</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44426.5137962963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9089,10 +8873,8 @@
           <t>5190232984</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:19:40</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44426.51365740741</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9152,10 +8934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:19:13</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44426.51334490741</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9223,10 +9003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:17:09</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44426.51190972222</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9290,10 +9068,8 @@
           <t>5189604688</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:16:54</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44426.51173611111</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9361,10 +9137,8 @@
           <t>5190210867</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:16:51</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44426.51170138889</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9432,10 +9206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:14:38</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44426.51016203704</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9499,10 +9271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:12:57</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44426.50899305556</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9570,10 +9340,8 @@
           <t>5190164970</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:12:49</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44426.50890046296</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9637,10 +9405,8 @@
           <t>5190152165</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:10:32</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44426.50731481481</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9716,10 +9482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:10:17</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44426.50714120371</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9795,10 +9559,8 @@
           <t>5190133827</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:09:27</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44426.5065625</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9870,10 +9632,8 @@
           <t>5190132365</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:08:58</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44426.50622685185</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9941,10 +9701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:08:55</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44426.50619212963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10009,10 +9767,8 @@
           <t>5189332010</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:08:52</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44426.50615740741</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10080,10 +9836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:08:15</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44426.50572916667</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10143,10 +9897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:08:08</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44426.50564814815</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10210,10 +9962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:06:54</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44426.50479166667</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10277,10 +10027,8 @@
           <t>5190102162</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:05:46</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44426.50400462963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10344,10 +10092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:05:32</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44426.5038425926</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10415,10 +10161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:04:03</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44426.5028125</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10486,10 +10230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:02:24</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44426.50166666666</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10565,10 +10307,8 @@
           <t>5190068733</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:01:59</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44426.50137731482</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10645,10 +10385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:01:06</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44426.50076388889</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10716,10 +10454,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:00:36</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44426.50041666667</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10783,10 +10519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-18 12:00:17</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44426.50019675926</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10862,10 +10596,8 @@
           <t>5190042540</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:59:17</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44426.49950231481</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10929,10 +10661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:58:56</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44426.49925925926</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11004,10 +10734,8 @@
           <t>5189931378</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:58:56</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44426.49925925926</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11079,10 +10807,8 @@
           <t>5190013649</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:58:49</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44426.49917824074</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11154,10 +10880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:57:20</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44426.49814814814</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11229,10 +10953,8 @@
           <t>5189555211</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:57:05</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44426.49797453704</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11300,10 +11022,8 @@
           <t>5189558233</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:56:58</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44426.49789351852</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11371,10 +11091,8 @@
           <t>5190013649</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:56:04</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44426.49726851852</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11450,10 +11168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:54:52</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44426.49643518519</v>
       </c>
       <c r="I151" t="n">
         <v>4</v>
@@ -11517,10 +11233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:54:21</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44426.49607638889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11596,10 +11310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:53:48</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44426.49569444444</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11663,10 +11375,8 @@
           <t>5189993627</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:53:40</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44426.49560185185</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11738,10 +11448,8 @@
           <t>5189997227</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:53:28</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44426.49546296296</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11817,10 +11525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:52:22</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44426.49469907407</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11884,10 +11590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:51:55</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44426.49438657407</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -11951,10 +11655,8 @@
           <t>5189978122</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:51:49</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44426.49431712963</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12018,10 +11720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:51:22</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44426.49400462963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12085,10 +11785,8 @@
           <t>5189739773</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:51:14</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44426.49391203704</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12160,10 +11858,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:50:42</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44426.49354166666</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12239,10 +11935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:49:27</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44426.49267361111</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12306,10 +12000,8 @@
           <t>5189970074</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:49:01</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44426.49237268518</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12385,10 +12077,8 @@
           <t>5189961001</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:48:57</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44426.49232638889</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12464,10 +12154,8 @@
           <t>5189931378</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:48:29</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44426.49200231482</v>
       </c>
       <c r="I165" t="n">
         <v>4</v>
@@ -12535,10 +12223,8 @@
           <t>5189931378</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:48:26</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44426.49196759259</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12614,10 +12300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:47:49</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44426.49153935185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12693,10 +12377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:47:29</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44426.49130787037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12764,10 +12446,8 @@
           <t>5189939545</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:46:54</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44426.49090277778</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12831,10 +12511,8 @@
           <t>5189943755</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:46:45</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44426.49079861111</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12910,10 +12588,8 @@
           <t>5189763430</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:46:35</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44426.49068287037</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12981,10 +12657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:46:20</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44426.49050925926</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13060,10 +12734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:46:16</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44426.49046296296</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13139,10 +12811,8 @@
           <t>5189937175</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:46:01</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44426.49028935185</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13206,10 +12876,8 @@
           <t>5189936421</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:45:44</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44426.49009259259</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13273,10 +12941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:45:41</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44426.49005787037</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13354,10 +13020,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:45:28</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44426.48990740741</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13417,10 +13081,8 @@
           <t>5189929661</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:45:20</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44426.48981481481</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13488,10 +13150,8 @@
           <t>5189931815</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:45:11</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44426.48971064815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13559,10 +13219,8 @@
           <t>5189931378</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:45:02</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44426.48960648148</v>
       </c>
       <c r="I180" t="n">
         <v>15</v>
@@ -13634,10 +13292,8 @@
           <t>5189384753</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:44:52</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44426.48949074074</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13709,10 +13365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:44:39</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44426.48934027777</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13788,10 +13442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:44:23</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44426.48915509259</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13851,10 +13503,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:44:15</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44426.4890625</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13922,10 +13572,8 @@
           <t>5189918503</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:43:52</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44426.4887962963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13993,10 +13641,8 @@
           <t>5189920894</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:43:41</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44426.48866898148</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14072,10 +13718,8 @@
           <t>5189912863</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:42:58</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44426.4881712963</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14139,10 +13783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:42:52</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44426.48810185185</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14210,10 +13852,8 @@
           <t>5189904399</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:42:13</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44426.48765046296</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14285,10 +13925,8 @@
           <t>5189910117</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:42:03</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44426.48753472222</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14356,10 +13994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:42:02</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44426.48752314815</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14427,10 +14063,8 @@
           <t>5189905852</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:41:48</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44426.48736111111</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14507,10 +14141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:41:23</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44426.48707175926</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14586,10 +14218,8 @@
           <t>5189901452</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:41:04</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44426.48685185185</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14663,10 +14293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:40:23</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44426.48637731482</v>
       </c>
       <c r="I195" t="n">
         <v>4</v>
@@ -14734,10 +14362,8 @@
           <t>5189890378</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:39:44</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44426.48592592592</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14797,10 +14423,8 @@
           <t>5189879922</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:39:33</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44426.48579861111</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14876,10 +14500,8 @@
           <t>5189879156</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:39:15</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44426.48559027778</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14953,10 +14575,8 @@
           <t>5189878193</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:38:53</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44426.48533564815</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -15024,10 +14644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:38:52</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44426.48532407408</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15095,10 +14713,8 @@
           <t>5189874523</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:38:18</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44426.48493055555</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15166,10 +14782,8 @@
           <t>5189876424</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:38:12</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44426.48486111111</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15237,10 +14851,8 @@
           <t>5189876202</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:38:08</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44426.48481481482</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15308,10 +14920,8 @@
           <t>5189876191</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:38:07</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44426.48480324074</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15379,10 +14989,8 @@
           <t>5189868704</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:37:54</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44426.48465277778</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15442,10 +15050,8 @@
           <t>5189867803</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:37:32</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44426.48439814815</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15513,10 +15119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:37:19</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44426.48424768518</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15592,10 +15196,8 @@
           <t>5189849496</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:35:31</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44426.48299768518</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15663,10 +15265,8 @@
           <t>5189855176</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:34:55</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44426.48258101852</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15730,10 +15330,8 @@
           <t>5189847762</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:34:50</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44426.48252314814</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15809,10 +15407,8 @@
           <t>5189847062</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:34:33</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44426.48232638889</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15876,10 +15472,8 @@
           <t>5189258685</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:33:44</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44426.48175925926</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15955,10 +15549,8 @@
           <t>5189832121</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:32:39</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44426.48100694444</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16026,10 +15618,8 @@
           <t>5189550911</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:32:07</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44426.48063657407</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16105,10 +15695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:32:01</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44426.48056712963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16185,10 +15773,8 @@
           <t>5189824288</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:31:58</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44426.4805324074</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16264,10 +15850,8 @@
           <t>5189696823</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:30:50</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44426.47974537037</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16343,10 +15927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:30:41</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44426.4796412037</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16414,10 +15996,8 @@
           <t>5189812842</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:30:32</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44426.47953703703</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16493,10 +16073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:30:21</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44426.47940972223</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16564,10 +16142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:29:37</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44426.47890046296</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16643,10 +16219,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:29:35</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44426.47887731482</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16714,10 +16288,8 @@
           <t>5189696823</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:29:27</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44426.47878472223</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16789,10 +16361,8 @@
           <t>5189803173</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:29:12</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44426.47861111111</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16868,10 +16438,8 @@
           <t>5189802598</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:28:58</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44426.47844907407</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16935,10 +16503,8 @@
           <t>5189806760</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:28:51</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44426.47836805556</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17006,10 +16572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:28:46</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44426.47831018519</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17085,10 +16649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:28:39</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44426.47822916666</v>
       </c>
       <c r="I228" t="n">
         <v>364</v>
@@ -17160,10 +16722,8 @@
           <t>5189797390</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:28:33</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44426.47815972222</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17239,10 +16799,8 @@
           <t>5189805396</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:28:16</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44426.47796296296</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17310,10 +16868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:28:03</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44426.4778125</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17390,10 +16946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:27:13</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44426.47723379629</v>
       </c>
       <c r="I232" t="n">
         <v>4</v>
@@ -17465,10 +17019,8 @@
           <t>5189783186</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:59</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44426.47707175926</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17540,10 +17092,8 @@
           <t>5189258685</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:46</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44426.47692129629</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17615,10 +17165,8 @@
           <t>5189786832</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:41</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44426.47686342592</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17694,10 +17242,8 @@
           <t>5189696823</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:27</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44426.47670138889</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17773,10 +17319,8 @@
           <t>5189604688</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:27</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44426.47670138889</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17844,10 +17388,8 @@
           <t>5189785827</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:18</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44426.47659722222</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17915,10 +17457,8 @@
           <t>5189704642</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:15</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44426.4765625</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17986,10 +17526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:11</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44426.4765162037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18065,10 +17603,8 @@
           <t>5189198156</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:11</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44426.4765162037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18140,10 +17676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:04</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44426.47643518518</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18207,10 +17741,8 @@
           <t>5189780577</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:26:03</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44426.47642361111</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18274,10 +17806,8 @@
           <t>5189780310</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:25:57</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44426.47635416667</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18349,10 +17879,8 @@
           <t>5189780030</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:25:51</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44426.47628472222</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18420,10 +17948,8 @@
           <t>5189550911</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:25:49</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44426.47626157408</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18491,10 +18017,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:25:19</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44426.47591435185</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18566,10 +18090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:24:40</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44426.47546296296</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18633,10 +18155,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:24:34</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44426.47539351852</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18708,10 +18228,8 @@
           <t>5189770167</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:24:02</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44426.47502314814</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18779,10 +18297,8 @@
           <t>5189739885</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:23:36</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44426.47472222222</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18854,10 +18370,8 @@
           <t>5189763430</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:23:26</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44426.47460648148</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18929,10 +18443,8 @@
           <t>5189763085</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:23:18</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44426.47451388889</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -19000,10 +18512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:22:48</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44426.47416666667</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19067,10 +18577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:22:47</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44426.47415509259</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19142,10 +18650,8 @@
           <t>5189756661</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:22:39</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44426.4740625</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19213,10 +18719,8 @@
           <t>5189756534</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:22:36</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44426.47402777777</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19292,10 +18796,8 @@
           <t>5189756445</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:22:34</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44426.47400462963</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19367,10 +18869,8 @@
           <t>5189756217</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:22:28</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44426.47393518518</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19430,10 +18930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:22:24</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44426.47388888889</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19497,10 +18995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:21:49</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44426.4734837963</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19568,10 +19064,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:21:49</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44426.4734837963</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19643,10 +19137,8 @@
           <t>5189739885</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:21:45</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44426.4734375</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19714,10 +19206,8 @@
           <t>5189739773</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:21:42</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44426.47340277778</v>
       </c>
       <c r="I264" t="n">
         <v>3</v>
@@ -19781,10 +19271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:21:25</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44426.47320601852</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19848,10 +19336,8 @@
           <t>5189532708</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:20:38</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44426.47266203703</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19911,10 +19397,8 @@
           <t>5189734400</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:20:05</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44426.4722800926</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19986,10 +19470,8 @@
           <t>5189727515</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:19:02</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44426.47155092593</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20065,10 +19547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:18:54</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44426.47145833333</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20136,10 +19616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:18:31</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44426.47119212963</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20204,10 +19682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:17:12</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44426.47027777778</v>
       </c>
       <c r="I271" t="n">
         <v>21</v>
@@ -20275,10 +19751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:16:43</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44426.46994212963</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20357,10 +19831,8 @@
           <t>5189704714</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:16:30</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44426.46979166667</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20428,10 +19900,8 @@
           <t>5189704642</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:16:29</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44426.46978009259</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20507,10 +19977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:15:42</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44426.46923611111</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20574,10 +20042,8 @@
           <t>5189699088</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:15:38</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44426.46918981482</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20645,10 +20111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:15:25</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44426.46903935185</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20720,10 +20184,8 @@
           <t>5189483274</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:15:02</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44426.46877314815</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20799,10 +20261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:14:46</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44426.46858796296</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20874,10 +20334,8 @@
           <t>5189696823</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:14:43</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44426.46855324074</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20949,10 +20407,8 @@
           <t>5189696161</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:14:27</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44426.46836805555</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21020,10 +20476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:14:26</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44426.46835648148</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21091,10 +20545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:14:16</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44426.46824074074</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21158,10 +20610,8 @@
           <t>5189679255</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:12:53</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44426.46728009259</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21237,10 +20687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:12:11</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44426.46679398148</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21316,10 +20764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:11:37</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44426.46640046296</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21386,10 +20832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:11:36</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44426.46638888889</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21461,10 +20905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:11:03</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44426.46600694444</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21528,10 +20970,8 @@
           <t>5189667280</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:10:51</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44426.46586805556</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21595,10 +21035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:10:42</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44426.46576388889</v>
       </c>
       <c r="I290" t="n">
         <v>6</v>
@@ -21670,10 +21108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:10:31</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44426.46563657407</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21737,10 +21173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:10:11</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44426.46540509259</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21808,10 +21242,8 @@
           <t>5189665544</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:10:09</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44426.46538194444</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21887,10 +21319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:09:43</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44426.46508101852</v>
       </c>
       <c r="I294" t="n">
         <v>2</v>
@@ -21966,10 +21396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:09:41</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44426.46505787037</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22037,10 +21465,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:09:39</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44426.46503472222</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22108,10 +21534,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:09:35</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44426.46498842593</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22189,10 +21613,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:09:06</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44426.46465277778</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22264,10 +21686,8 @@
           <t>5189648138</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:08:29</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44426.46422453703</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22335,10 +21755,8 @@
           <t>5189647541</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:08:16</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44426.46407407407</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22406,10 +21824,8 @@
           <t>5189615440</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:08:03</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44426.46392361111</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22485,10 +21901,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:07:28</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44426.46351851852</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22552,10 +21966,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:07:14</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44426.46335648148</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22631,10 +22043,8 @@
           <t>5189636024</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:06:16</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44426.46268518519</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22698,10 +22108,8 @@
           <t>5189635131</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:05:54</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44426.46243055556</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22774,10 +22182,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:05:47</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44426.46234953704</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22845,10 +22251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:05:39</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44426.46225694445</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22912,10 +22316,8 @@
           <t>5189630548</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:05:39</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44426.46225694445</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22983,10 +22385,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:05:21</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44426.46204861111</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -23062,10 +22462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:05:16</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44426.46199074074</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23137,10 +22535,8 @@
           <t>5189619118</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:05:07</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44426.46188657408</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23208,10 +22604,8 @@
           <t>5189626046</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:05:00</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44426.46180555555</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23275,10 +22669,8 @@
           <t>5189547630</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:04:52</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44426.46171296296</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23354,10 +22746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:04:50</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44426.46168981482</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23433,10 +22823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:04:49</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44426.46167824074</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23502,10 +22890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:04:44</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44426.46162037037</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23581,10 +22967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:04:31</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44426.46146990741</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23652,10 +23036,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:04:28</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44426.46143518519</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23731,10 +23113,8 @@
           <t>5189614520</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:04:21</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44426.46135416667</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23803,10 +23183,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:04:15</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44426.46128472222</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23874,10 +23252,8 @@
           <t>5189615440</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:03:45</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44426.4609375</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23953,10 +23329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:03:44</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44426.46092592592</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24020,10 +23394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:03:41</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44426.4608912037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24087,10 +23459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:03:41</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44426.4608912037</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24154,10 +23524,8 @@
           <t>5189612858</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:03:39</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44426.46086805555</v>
       </c>
       <c r="I325" t="n">
         <v>2</v>
@@ -24229,10 +23597,8 @@
           <t>5189604688</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:03:27</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44426.46072916667</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24300,10 +23666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:03:09</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44426.46052083333</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24371,10 +23735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:03:05</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44426.46047453704</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24446,10 +23808,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:02:58</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44426.46039351852</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24525,10 +23885,8 @@
           <t>5189599994</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:02:26</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44426.46002314815</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24596,10 +23954,8 @@
           <t>5189601541</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:02:16</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44426.45990740741</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24667,10 +24023,8 @@
           <t>5189469398</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:02:07</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44426.45980324074</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24746,10 +24100,8 @@
           <t>5189599014</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:02:01</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44426.4597337963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24817,10 +24169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:01:48</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44426.45958333334</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24884,10 +24234,8 @@
           <t>5189588952</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:01:21</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44426.45927083334</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24959,10 +24307,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:01:06</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44426.45909722222</v>
       </c>
       <c r="I336" t="n">
         <v>5</v>
@@ -25034,10 +24380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:00:30</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44426.45868055556</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25113,10 +24457,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:59:53</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44426.45825231481</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25184,10 +24526,8 @@
           <t>5189574979</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:59:44</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44426.45814814815</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25263,10 +24603,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:59:40</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44426.45810185185</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25330,10 +24668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:59:17</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44426.45783564815</v>
       </c>
       <c r="I341" t="n">
         <v>62</v>
@@ -25397,10 +24733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:59:12</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44426.45777777778</v>
       </c>
       <c r="I342" t="n">
         <v>2</v>
@@ -25477,10 +24811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:59:09</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44426.45774305556</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25548,10 +24880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:58:28</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44426.45726851852</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25628,10 +24958,8 @@
           <t>5189580432</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:58:18</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44426.45715277778</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25699,10 +25027,8 @@
           <t>5189532708</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:58:17</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44426.4571412037</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25778,10 +25104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:58:10</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44426.45706018519</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25849,10 +25173,8 @@
           <t>5189569766</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:57:49</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44426.45681712963</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25928,10 +25250,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:57:12</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44426.45638888889</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25995,10 +25315,8 @@
           <t>5189236189</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:57:06</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44426.45631944444</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26070,10 +25388,8 @@
           <t>5189558233</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:56:56</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44426.4562037037</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26137,10 +25453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:56:39</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44426.45600694444</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26204,10 +25518,8 @@
           <t>5189236189</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:56:18</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44426.45576388889</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26275,10 +25587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:56:12</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44426.45569444444</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26346,10 +25656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:56:05</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44426.45561342593</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26425,10 +25733,8 @@
           <t>5189555211</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:55:39</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44426.4553125</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26496,10 +25802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:55:36</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44426.45527777778</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -26567,10 +25871,8 @@
           <t>5189544292</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:55:16</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44426.45504629629</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26647,10 +25949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:55:04</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44426.45490740741</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26718,10 +26018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:54:55</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44426.45480324074</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26793,10 +26091,8 @@
           <t>5189547630</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:54:48</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44426.45472222222</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26868,10 +26164,8 @@
           <t>5189551356</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:54:36</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44426.45458333333</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26948,10 +26242,8 @@
           <t>5189283989</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:54:35</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44426.45457175926</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27019,10 +26311,8 @@
           <t>5189550911</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:54:25</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44426.45445601852</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27098,10 +26388,8 @@
           <t>5189550422</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:54:13</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44426.45431712963</v>
       </c>
       <c r="I365" t="n">
         <v>18</v>
@@ -27177,10 +26465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:54:07</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44426.45424768519</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27256,10 +26542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:53:56</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44426.45412037037</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27327,10 +26611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:53:54</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44426.45409722222</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27394,10 +26676,8 @@
           <t>5189545395</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:53:46</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44426.45400462963</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27465,10 +26745,8 @@
           <t>5189538891</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:53:39</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44426.45392361111</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27558,10 +26836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:53:22</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44426.45372685185</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27629,10 +26905,8 @@
           <t>5189533675</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:52:54</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44426.45340277778</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27708,10 +26982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:52:53</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44426.4533912037</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27789,10 +27061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:52:40</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44426.45324074074</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27860,10 +27130,8 @@
           <t>5189236189</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:52:38</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44426.45321759259</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27935,10 +27203,8 @@
           <t>5189532708</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:52:30</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44426.453125</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27998,10 +27264,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:52:27</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44426.45309027778</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28078,10 +27342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:52:01</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44426.45278935185</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28157,10 +27419,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:51:54</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44426.45270833333</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28228,10 +27488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:51:34</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44426.45247685185</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28307,10 +27565,8 @@
           <t>5189530122</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:51:24</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44426.45236111111</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28382,10 +27638,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:51:23</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44426.45234953704</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28461,10 +27715,8 @@
           <t>5189519704</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:51:14</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44426.45224537037</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28536,10 +27788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:51:09</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44426.4521875</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28615,10 +27865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:50:39</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44426.45184027778</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28695,10 +27943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:50:30</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44426.45173611111</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28770,10 +28016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:50:12</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44426.45152777778</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28841,10 +28085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:49:55</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44426.45133101852</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28908,10 +28150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:49:48</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44426.45125</v>
       </c>
       <c r="I389" t="n">
         <v>3</v>
@@ -28985,10 +28225,8 @@
           <t>5189504670</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:49:04</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44426.45074074074</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29064,10 +28302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:49:03</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44426.45072916667</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -29143,10 +28379,8 @@
           <t>5189483274</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:48:07</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44426.45008101852</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29218,10 +28452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:47:41</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44426.44978009259</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29285,10 +28517,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:47:35</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44426.44971064815</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29356,10 +28586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:47:02</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44426.4493287037</v>
       </c>
       <c r="I395" t="n">
         <v>52</v>
@@ -29435,10 +28663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:46:55</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44426.44924768519</v>
       </c>
       <c r="I396" t="n">
         <v>4</v>
@@ -29506,10 +28732,8 @@
           <t>5189469398</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:46:28</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44426.44893518519</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29577,10 +28801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:46:18</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44426.44881944444</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29656,10 +28878,8 @@
           <t>5189487684</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:46:06</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44426.44868055556</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29735,10 +28955,8 @@
           <t>5189483274</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:45:55</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44426.44855324074</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29816,10 +29034,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:45:45</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44426.4484375</v>
       </c>
       <c r="I401" t="n">
         <v>3</v>
@@ -29887,10 +29103,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:45:43</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44426.44841435185</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29954,10 +29168,8 @@
           <t>5189478717</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:45:37</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44426.44834490741</v>
       </c>
       <c r="I403" t="n">
         <v>3</v>
@@ -30025,10 +29237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:45:34</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44426.44831018519</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30096,10 +29306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:45:32</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44426.44828703703</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30163,10 +29371,8 @@
           <t>5189481177</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:44:57</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44426.44788194444</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30238,10 +29444,8 @@
           <t>5189469398</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:44:54</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44426.44784722223</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30318,10 +29522,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:44:52</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44426.44782407407</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30385,10 +29587,8 @@
           <t>5189480803</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:44:46</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44426.44775462963</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30464,10 +29664,8 @@
           <t>5189467034</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:44:45</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44426.44774305556</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30535,10 +29733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:44:29</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44426.44755787037</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30598,10 +29794,8 @@
           <t>5189469398</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:51</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44426.44711805556</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30669,10 +29863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:50</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44426.44710648148</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30748,10 +29940,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:47</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44426.44707175926</v>
       </c>
       <c r="I414" t="n">
         <v>13</v>
@@ -30823,10 +30013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:43</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44426.44702546296</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30890,10 +30078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:38</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44426.44696759259</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30957,10 +30143,8 @@
           <t>5189443545</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:35</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44426.44693287037</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -31033,10 +30217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:27</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44426.44684027778</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31112,10 +30294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:26</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44426.4468287037</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31191,10 +30371,8 @@
           <t>5189468088</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:21</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44426.44677083333</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31259,10 +30437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:43:16</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44426.44671296296</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31326,10 +30502,8 @@
           <t>5189467034</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:42:56</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44426.44648148148</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -31405,10 +30579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:42:55</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44426.44646990741</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31484,10 +30656,8 @@
           <t>5189466039</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:42:32</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44426.4462037037</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31563,10 +30733,8 @@
           <t>5189458577</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:42:14</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44426.44599537037</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31642,10 +30810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:41:59</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44426.44582175926</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31721,10 +30887,8 @@
           <t>5189384753</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:41:52</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44426.44574074074</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31796,10 +30960,8 @@
           <t>5189376626</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:41:36</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44426.44555555555</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31871,10 +31033,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:41:22</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44426.44539351852</v>
       </c>
       <c r="I429" t="n">
         <v>4</v>
@@ -31934,10 +31094,8 @@
           <t>5189456513</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:41:20</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44426.44537037037</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32014,10 +31172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:41:03</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44426.44517361111</v>
       </c>
       <c r="I431" t="n">
         <v>6</v>
@@ -32081,10 +31237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:40:38</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44426.44488425926</v>
       </c>
       <c r="I432" t="n">
         <v>5</v>
@@ -32152,10 +31306,8 @@
           <t>5189444432</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:40:26</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44426.44474537037</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32223,10 +31375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:40:20</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44426.44467592592</v>
       </c>
       <c r="I434" t="n">
         <v>2</v>
@@ -32302,10 +31452,8 @@
           <t>5189446189</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:40:17</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44426.44464120371</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32377,10 +31525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:40:13</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44426.44459490741</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32456,10 +31602,8 @@
           <t>5189443545</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:40:03</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44426.44447916667</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32523,10 +31667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:39:56</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44426.44439814815</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32598,10 +31740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:39:53</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44426.44436342592</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32677,10 +31817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:39:43</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44426.44424768518</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32752,10 +31890,8 @@
           <t>5189434676</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:39:35</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44426.44415509259</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32827,10 +31963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:39:31</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44426.4441087963</v>
       </c>
       <c r="I442" t="n">
         <v>18</v>
@@ -32906,10 +32040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:39:14</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44426.44391203704</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32985,10 +32117,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:38:56</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44426.44370370371</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -33065,10 +32195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:38:50</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44426.44363425926</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33136,10 +32264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:38:49</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44426.44362268518</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33203,10 +32329,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:38:45</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44426.44357638889</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33283,10 +32407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:38:42</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44426.44354166667</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33362,10 +32484,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:38:18</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44426.44326388889</v>
       </c>
       <c r="I449" t="n">
         <v>8</v>
@@ -33443,10 +32563,8 @@
           <t>5189429061</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:38:08</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44426.44314814815</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33514,10 +32632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:37:40</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44426.44282407407</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33589,10 +32705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:37:10</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44426.44247685185</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33660,10 +32774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:37:03</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44426.44239583334</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33735,10 +32847,8 @@
           <t>5189422379</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:37:02</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44426.44238425926</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33814,10 +32924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:36:42</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44426.44215277778</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33885,10 +32993,8 @@
           <t>5189418178</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:36:33</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44426.44204861111</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33962,10 +33068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:36:23</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44426.44193287037</v>
       </c>
       <c r="I457" t="n">
         <v>5</v>
@@ -34041,10 +33145,8 @@
           <t>5189409950</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:36:03</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44426.44170138889</v>
       </c>
       <c r="I458" t="n">
         <v>47</v>
@@ -34108,10 +33210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:35:18</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44426.44118055556</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34183,10 +33283,8 @@
           <t>5189415482</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:35:16</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44426.4411574074</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34258,10 +33356,8 @@
           <t>5189407626</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:35:06</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44426.44104166667</v>
       </c>
       <c r="I461" t="n">
         <v>5</v>
@@ -34333,10 +33429,8 @@
           <t>5189303440</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:34:42</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44426.44076388889</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34412,10 +33506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:34:32</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44426.44064814815</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34483,10 +33575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:34:17</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44426.44047453703</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34550,10 +33640,8 @@
           <t>5189243813</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:33:51</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44426.44017361111</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34617,10 +33705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:33:42</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44426.44006944444</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34698,10 +33784,8 @@
           <t>5189393627</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:33:34</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44426.43997685185</v>
       </c>
       <c r="I467" t="n">
         <v>5</v>
@@ -34769,10 +33853,8 @@
           <t>5189392939</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:33:16</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44426.43976851852</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34840,10 +33922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:33:13</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44426.43973379629</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34922,10 +34002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:32:56</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44426.43953703704</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34993,10 +34071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:59</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44426.43887731482</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35072,10 +34148,8 @@
           <t>5189384753</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:54</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44426.43881944445</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35147,10 +34221,8 @@
           <t>5189379765</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:52</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44426.43879629629</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35218,10 +34290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:40</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44426.43865740741</v>
       </c>
       <c r="I474" t="n">
         <v>2</v>
@@ -35290,10 +34360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:39</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44426.43864583333</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35365,10 +34433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:32</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44426.43856481482</v>
       </c>
       <c r="I476" t="n">
         <v>25</v>
@@ -35444,10 +34510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:17</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44426.4383912037</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35511,10 +34575,8 @@
           <t>5189386687</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:08</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44426.43828703704</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35578,10 +34640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:31:07</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44426.43827546296</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35649,10 +34709,8 @@
           <t>5189376626</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:30:30</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44426.43784722222</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35724,10 +34782,8 @@
           <t>5189380605</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:30:12</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44426.43763888889</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35795,10 +34851,8 @@
           <t>5189380282</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:30:05</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44426.43755787037</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35870,10 +34924,8 @@
           <t>5189375512</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:30:00</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44426.4375</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35945,10 +34997,8 @@
           <t>5189380007</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:29:58</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44426.43747685185</v>
       </c>
       <c r="I484" t="n">
         <v>21</v>
@@ -36012,10 +35062,8 @@
           <t>5189365000</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:29:47</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44426.43734953704</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36079,10 +35127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:29:41</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44426.43728009259</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36150,10 +35196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:29:22</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44426.43706018518</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36229,10 +35273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:29:19</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44426.43702546296</v>
       </c>
       <c r="I488" t="n">
         <v>572</v>
@@ -36292,10 +35334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:29:16</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44426.43699074074</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36372,10 +35412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:29:05</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44426.43686342592</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36451,10 +35489,8 @@
           <t>5189372640</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:28:59</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44426.43679398148</v>
       </c>
       <c r="I491" t="n">
         <v>2</v>
@@ -36526,10 +35562,8 @@
           <t>5189372013</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:28:44</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44426.43662037037</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36597,10 +35631,8 @@
           <t>5189366710</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:28:44</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44426.43662037037</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36676,10 +35708,8 @@
           <t>5189366581</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:28:41</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44426.43658564815</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36755,10 +35785,8 @@
           <t>5189366254</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:28:32</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44426.43648148148</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36826,10 +35854,8 @@
           <t>5189365768</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:28:17</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44426.43630787037</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36893,10 +35919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:28:13</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44426.43626157408</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36972,10 +35996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:27:47</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44426.43596064814</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37047,10 +36069,8 @@
           <t>5189354494</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:27:41</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44426.43589120371</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -37122,10 +36142,8 @@
           <t>5189349876</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:27:30</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44426.43576388889</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37195,10 +36213,8 @@
           <t>5189349733</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:27:27</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44426.43572916667</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37266,10 +36282,8 @@
           <t>5189348894</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:27:05</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44426.43547453704</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37345,10 +36359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:26:52</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44426.43532407407</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37424,10 +36436,8 @@
           <t>5189275238</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:26:42</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44426.43520833334</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37503,10 +36513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:26:27</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44426.43503472222</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37574,10 +36582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:26:14</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44426.43488425926</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37641,10 +36647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:25:36</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44426.43444444444</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37712,10 +36716,8 @@
           <t>5189343999</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:25:27</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44426.43434027778</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37787,10 +36789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:25:14</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44426.43418981481</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37850,10 +36850,8 @@
           <t>5189334608</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:25:10</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44426.43414351852</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37925,10 +36923,8 @@
           <t>5189184376</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:24:57</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44426.43399305556</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -38000,10 +36996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:24:56</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44426.43398148148</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38079,10 +37073,8 @@
           <t>5189342731</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:24:54</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44426.43395833333</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38146,10 +37138,8 @@
           <t>5189338543</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:24:50</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44426.43391203704</v>
       </c>
       <c r="I514" t="n">
         <v>4</v>
@@ -38221,10 +37211,8 @@
           <t>5189243813</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:24:36</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44426.43375</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38288,10 +37276,8 @@
           <t>5189333307</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:24:34</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44426.43372685185</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38363,10 +37349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:24:27</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44426.43364583333</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38438,10 +37422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:24:15</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44426.43350694444</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38513,10 +37495,8 @@
           <t>5189332010</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:23:59</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44426.43332175926</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38584,10 +37564,8 @@
           <t>5189340517</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:23:57</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44426.43329861111</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38663,10 +37641,8 @@
           <t>5189331892</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:23:55</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44426.43327546296</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38738,10 +37714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:23:54</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44426.43326388889</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38809,10 +37783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:23:37</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44426.43306712963</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38876,10 +37848,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:23:05</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44426.43269675926</v>
       </c>
       <c r="I524" t="n">
         <v>2</v>
@@ -38955,10 +37925,8 @@
           <t>5189330008</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:23:05</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44426.43269675926</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -39034,10 +38002,8 @@
           <t>5189325228</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:49</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44426.43251157407</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -39101,10 +38067,8 @@
           <t>5189323994</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:43</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44426.43244212963</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39172,10 +38136,8 @@
           <t>5189325228</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:35</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44426.43234953703</v>
       </c>
       <c r="I528" t="n">
         <v>2</v>
@@ -39247,10 +38209,8 @@
           <t>5189326699</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:23</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44426.43221064815</v>
       </c>
       <c r="I529" t="n">
         <v>11</v>
@@ -39326,10 +38286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:23</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44426.43221064815</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39402,10 +38360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:14</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44426.43210648148</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39473,10 +38429,8 @@
           <t>5189322890</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:12</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44426.43208333333</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39552,10 +38506,8 @@
           <t>5189285555</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:10</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44426.43206018519</v>
       </c>
       <c r="I533" t="n">
         <v>3</v>
@@ -39623,10 +38575,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:22:07</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44426.43202546296</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39698,10 +38648,8 @@
           <t>5189325228</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:21:46</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44426.43178240741</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39778,10 +38726,8 @@
           <t>5189316429</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:21:30</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44426.43159722222</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39845,10 +38791,8 @@
           <t>5189313774</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:21:10</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44426.43136574074</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39924,10 +38868,8 @@
           <t>5189315174</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:55</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44426.43119212963</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39991,10 +38933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:53</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44426.43116898148</v>
       </c>
       <c r="I539" t="n">
         <v>7</v>
@@ -40070,10 +39010,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:52</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44426.43115740741</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -40149,10 +39087,8 @@
           <t>5189309900</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:47</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44426.43109953704</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40224,10 +39160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:45</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44426.43107638889</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40299,10 +39233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:42</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44426.43104166666</v>
       </c>
       <c r="I543" t="n">
         <v>5</v>
@@ -40378,10 +39310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:41</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44426.43103009259</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40457,10 +39387,8 @@
           <t>5189304595</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:40</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44426.43101851852</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40528,10 +39456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:21</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44426.43079861111</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40607,10 +39533,8 @@
           <t>5189303440</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:20:05</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44426.43061342592</v>
       </c>
       <c r="I547" t="n">
         <v>13</v>
@@ -40675,10 +39599,8 @@
           <t>5189310819</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:55</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44426.43049768519</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40746,10 +39668,8 @@
           <t>5189307624</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:46</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44426.43039351852</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40809,10 +39729,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:38</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44426.43030092592</v>
       </c>
       <c r="I550" t="n">
         <v>7</v>
@@ -40888,10 +39806,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:29</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44426.43019675926</v>
       </c>
       <c r="I551" t="n">
         <v>9</v>
@@ -40968,10 +39884,8 @@
           <t>5189299726</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:28</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44426.43018518519</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -41039,10 +39953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:25</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44426.43015046296</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41114,10 +40026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:14</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44426.43002314815</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41193,10 +40103,8 @@
           <t>5189298936</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:08</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44426.4299537037</v>
       </c>
       <c r="I555" t="n">
         <v>2</v>
@@ -41272,10 +40180,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:19:06</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44426.42993055555</v>
       </c>
       <c r="I556" t="n">
         <v>2</v>
@@ -41351,10 +40257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:58</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44426.42983796296</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41430,10 +40334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:52</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44426.42976851852</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41501,10 +40403,8 @@
           <t>5189297478</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:31</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44426.42952546296</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41568,10 +40468,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:27</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44426.42947916667</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -41635,10 +40533,8 @@
           <t>5189289264</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:27</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44426.42947916667</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41710,10 +40606,8 @@
           <t>5189294378</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:20</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44426.42939814815</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41789,10 +40683,8 @@
           <t>5189243813</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:11</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44426.42929398148</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41856,10 +40748,8 @@
           <t>5189296685</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:11</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44426.42929398148</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41923,10 +40813,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:07</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44426.42924768518</v>
       </c>
       <c r="I565" t="n">
         <v>7</v>
@@ -42002,10 +40890,8 @@
           <t>5189289264</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:05</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44426.42922453704</v>
       </c>
       <c r="I566" t="n">
         <v>6</v>
@@ -42081,10 +40967,8 @@
           <t>5189293691</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:18:01</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44426.42917824074</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -42144,10 +41028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:17:57</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44426.42913194445</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42223,10 +41105,8 @@
           <t>5189243813</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:17:47</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44426.42901620371</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42290,10 +41170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:17:36</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44426.42888888889</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42357,10 +41235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:17:30</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44426.42881944445</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42428,10 +41304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:17:14</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44426.42863425926</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42503,10 +41377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:17:12</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44426.42861111111</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42578,10 +41450,8 @@
           <t>5189283989</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:17:02</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44426.42849537037</v>
       </c>
       <c r="I574" t="n">
         <v>5</v>
@@ -42657,10 +41527,8 @@
           <t>5189291304</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:16:56</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44426.42842592593</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42732,10 +41600,8 @@
           <t>5189286744</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:16:52</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44426.42837962963</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42811,10 +41677,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:16:49</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44426.42834490741</v>
       </c>
       <c r="I577" t="n">
         <v>2</v>
@@ -42890,10 +41754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:16:40</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44426.42824074074</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42957,10 +41819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:16:23</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44426.42804398148</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43032,10 +41892,8 @@
           <t>5189285555</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:16:17</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44426.42797453704</v>
       </c>
       <c r="I580" t="n">
         <v>7</v>
@@ -43095,10 +41953,8 @@
           <t>5189285396</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:16:13</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44426.42792824074</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43162,10 +42018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:16:02</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44426.42780092593</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43237,10 +42091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:15:59</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44426.42776620371</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43300,10 +42152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:15:25</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44426.42737268518</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43371,10 +42221,8 @@
           <t>5189198156</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:15:10</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44426.42719907407</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43434,10 +42282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:15:05</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44426.42714120371</v>
       </c>
       <c r="I586" t="n">
         <v>385</v>
@@ -43505,10 +42351,8 @@
           <t>5189276667</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:47</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44426.42693287037</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -43576,10 +42420,8 @@
           <t>5189268678</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:44</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44426.42689814815</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43651,10 +42493,8 @@
           <t>5189276512</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:43</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44426.42688657407</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43726,10 +42566,8 @@
           <t>5189264582</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:40</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44426.42685185185</v>
       </c>
       <c r="I590" t="n">
         <v>2</v>
@@ -43796,10 +42634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:32</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44426.42675925926</v>
       </c>
       <c r="I591" t="n">
         <v>580</v>
@@ -43871,10 +42707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:32</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44426.42675925926</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43942,10 +42776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:21</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44426.42663194444</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -44013,10 +42845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:19</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44426.4266087963</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44086,10 +42916,8 @@
           <t>5189275657</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:19</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44426.4266087963</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44165,10 +42993,8 @@
           <t>5189267614</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:18</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44426.42659722222</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44244,10 +43070,8 @@
           <t>5189267320</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:10</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44426.42650462963</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44323,10 +43147,8 @@
           <t>5189275238</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:09</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44426.42649305556</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44402,10 +43224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:06</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44426.42645833334</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44481,10 +43301,8 @@
           <t>5189271059</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:14:05</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44426.42644675926</v>
       </c>
       <c r="I600" t="n">
         <v>18</v>
@@ -44548,10 +43366,8 @@
           <t>5189264582</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:51</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44426.42628472222</v>
       </c>
       <c r="I601" t="n">
         <v>2</v>
@@ -44615,10 +43431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:37</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44426.42612268519</v>
       </c>
       <c r="I602" t="n">
         <v>1</v>
@@ -44690,10 +43504,8 @@
           <t>5189259954</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:33</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44426.42607638889</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44762,10 +43574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:32</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44426.42606481481</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44829,10 +43639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:31</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44426.42605324074</v>
       </c>
       <c r="I605" t="n">
         <v>275</v>
@@ -44896,10 +43704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:30</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44426.42604166667</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44967,10 +43773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:29</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44426.4260300926</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -45038,10 +43842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:28</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44426.42601851852</v>
       </c>
       <c r="I608" t="n">
         <v>16</v>
@@ -45117,10 +43919,8 @@
           <t>5189265312</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:18</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44426.42590277778</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -45184,10 +43984,8 @@
           <t>5189263276</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:15</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44426.42586805556</v>
       </c>
       <c r="I610" t="n">
         <v>11</v>
@@ -45251,10 +44049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:08</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44426.42578703703</v>
       </c>
       <c r="I611" t="n">
         <v>1</v>
@@ -45318,10 +44114,8 @@
           <t>5189259094</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:08</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44426.42578703703</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45385,10 +44179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:13:06</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44426.42576388889</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45452,10 +44244,8 @@
           <t>5189262621</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:57</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44426.42565972222</v>
       </c>
       <c r="I614" t="n">
         <v>4</v>
@@ -45524,10 +44314,8 @@
           <t>5189258685</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:57</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44426.42565972222</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45603,10 +44391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:52</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44426.42560185185</v>
       </c>
       <c r="I616" t="n">
         <v>1</v>
@@ -45678,10 +44464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:38</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44426.42543981481</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45753,10 +44537,8 @@
           <t>5189258029</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:38</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44426.42543981481</v>
       </c>
       <c r="I618" t="n">
         <v>7</v>
@@ -45820,10 +44602,8 @@
           <t>5189261806</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:36</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44426.42541666667</v>
       </c>
       <c r="I619" t="n">
         <v>2</v>
@@ -45899,10 +44679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:34</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44426.42539351852</v>
       </c>
       <c r="I620" t="n">
         <v>1</v>
@@ -45970,10 +44748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:31</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44426.4253587963</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -46049,10 +44825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:19</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44426.42521990741</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -46120,10 +44894,8 @@
           <t>5189208554</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:12</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44426.42513888889</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46200,10 +44972,8 @@
           <t>5189260629</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:12:03</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44426.42503472222</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46275,10 +45045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:41</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44426.4247800926</v>
       </c>
       <c r="I625" t="n">
         <v>10</v>
@@ -46346,10 +45114,8 @@
           <t>5189249441</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:31</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44426.42466435185</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46418,10 +45184,8 @@
           <t>5189249328</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:28</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44426.42462962963</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46489,10 +45253,8 @@
           <t>5189251018</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:28</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44426.42462962963</v>
       </c>
       <c r="I628" t="n">
         <v>1</v>
@@ -46556,10 +45318,8 @@
           <t>5189250605</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:18</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44426.42451388889</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46631,10 +45391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:15</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44426.42447916666</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46702,10 +45460,8 @@
           <t>5189248803</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:14</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44426.42446759259</v>
       </c>
       <c r="I631" t="n">
         <v>1</v>
@@ -46777,10 +45533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:14</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44426.42446759259</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46856,10 +45610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:13</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44426.42445601852</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46927,10 +45679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:11</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44426.42443287037</v>
       </c>
       <c r="I634" t="n">
         <v>2</v>
@@ -47006,10 +45756,8 @@
           <t>5189236189</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:11:05</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44426.42436342593</v>
       </c>
       <c r="I635" t="n">
         <v>1</v>
@@ -47085,10 +45833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:49</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44426.42417824074</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -47164,10 +45910,8 @@
           <t>5189247790</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:45</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44426.42413194444</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47231,10 +45975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:38</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44426.42405092593</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -47306,10 +46048,8 @@
           <t>5189240129</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:38</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44426.42405092593</v>
       </c>
       <c r="I639" t="n">
         <v>1</v>
@@ -47373,10 +46113,8 @@
           <t>5189243957</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:36</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44426.42402777778</v>
       </c>
       <c r="I640" t="n">
         <v>1</v>
@@ -47452,10 +46190,8 @@
           <t>5189243813</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:33</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44426.42399305556</v>
       </c>
       <c r="I641" t="n">
         <v>8</v>
@@ -47519,10 +46255,8 @@
           <t>5189243791</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:32</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44426.42398148148</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47590,10 +46324,8 @@
           <t>5189243633</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:28</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44426.42393518519</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47661,10 +46393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:13</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44426.42376157407</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47740,10 +46470,8 @@
           <t>5189242953</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:10</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44426.42372685186</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47811,10 +46539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:09</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44426.42371527778</v>
       </c>
       <c r="I646" t="n">
         <v>1</v>
@@ -47886,10 +46612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:10:05</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44426.42366898148</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47953,10 +46677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:58</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44426.42358796296</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -48023,10 +46745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:54</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44426.42354166666</v>
       </c>
       <c r="I649" t="n">
         <v>57</v>
@@ -48102,10 +46822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:49</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44426.42348379629</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48177,10 +46895,8 @@
           <t>5189237130</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:45</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44426.4234375</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -48244,10 +46960,8 @@
           <t>5189245456</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:42</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44426.42340277778</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -48311,10 +47025,8 @@
           <t>5189208554</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:38</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44426.42335648148</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -48390,10 +47102,8 @@
           <t>5189236743</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:34</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44426.42331018519</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48457,10 +47167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:20</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44426.42314814815</v>
       </c>
       <c r="I655" t="n">
         <v>4</v>
@@ -48528,10 +47236,8 @@
           <t>5189236189</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:18</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44426.423125</v>
       </c>
       <c r="I656" t="n">
         <v>3</v>
@@ -48595,10 +47301,8 @@
           <t>5189236046</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:14</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44426.4230787037</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48674,10 +47378,8 @@
           <t>5189234156</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:08</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44426.42300925926</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48737,10 +47439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:09:05</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44426.42297453704</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48816,10 +47516,8 @@
           <t>5189233751</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:57</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44426.42288194445</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48895,10 +47593,8 @@
           <t>5189240129</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:57</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44426.42288194445</v>
       </c>
       <c r="I661" t="n">
         <v>2</v>
@@ -48970,10 +47666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:53</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44426.42283564815</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -49037,10 +47731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:51</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44426.4228125</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -49104,10 +47796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:50</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44426.42280092592</v>
       </c>
       <c r="I664" t="n">
         <v>1</v>
@@ -49179,10 +47869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:27</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44426.42253472222</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -49242,10 +47930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:21</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44426.42246527778</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49309,10 +47995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:17</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44426.42241898148</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49384,10 +48068,8 @@
           <t>5189198156</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:13</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44426.42237268519</v>
       </c>
       <c r="I668" t="n">
         <v>3</v>
@@ -49459,10 +48141,8 @@
           <t>5189228221</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:10</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44426.42233796296</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49534,10 +48214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:08:05</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44426.42228009259</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49609,10 +48287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:52</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44426.42212962963</v>
       </c>
       <c r="I671" t="n">
         <v>83</v>
@@ -49689,10 +48365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:47</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44426.42207175926</v>
       </c>
       <c r="I672" t="n">
         <v>2</v>
@@ -49756,10 +48430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:47</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44426.42207175926</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49827,10 +48499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:45</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44426.42204861111</v>
       </c>
       <c r="I674" t="n">
         <v>1</v>
@@ -49894,10 +48564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:37</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44426.42195601852</v>
       </c>
       <c r="I675" t="n">
         <v>1</v>
@@ -49973,10 +48641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:36</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44426.42194444445</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -50044,10 +48710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:28</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44426.42185185185</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -50124,10 +48788,8 @@
           <t>5189226294</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:23</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44426.42179398148</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -50195,10 +48857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:20</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44426.42175925926</v>
       </c>
       <c r="I679" t="n">
         <v>1</v>
@@ -50266,10 +48926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:07:11</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44426.42165509259</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50345,10 +49003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:06:54</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44426.42145833333</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50420,10 +49076,8 @@
           <t>5189218379</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:06:36</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44426.42125</v>
       </c>
       <c r="I682" t="n">
         <v>5</v>
@@ -50499,10 +49153,8 @@
           <t>5189208554</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:05:41</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44426.42061342593</v>
       </c>
       <c r="I683" t="n">
         <v>1</v>
@@ -50574,10 +49226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:05:35</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44426.42054398148</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50649,10 +49299,8 @@
           <t>5189208063</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:05:28</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44426.42046296296</v>
       </c>
       <c r="I685" t="n">
         <v>2</v>
@@ -50729,10 +49377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:05:15</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44426.4203125</v>
       </c>
       <c r="I686" t="n">
         <v>113</v>
@@ -50796,10 +49442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:05:07</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44426.42021990741</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -50875,10 +49519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:05:04</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44426.42018518518</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50946,10 +49588,8 @@
           <t>5189198156</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:05:04</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44426.42018518518</v>
       </c>
       <c r="I689" t="n">
         <v>40</v>
@@ -51025,10 +49665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:05:02</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44426.42016203704</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -51104,10 +49742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:57</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44426.42010416667</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -51171,10 +49807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:55</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44426.42008101852</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -51242,10 +49876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:55</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44426.42008101852</v>
       </c>
       <c r="I693" t="n">
         <v>1</v>
@@ -51309,10 +49941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:50</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44426.42002314814</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -51383,10 +50013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:43</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44426.41994212963</v>
       </c>
       <c r="I695" t="n">
         <v>2</v>
@@ -51454,10 +50082,8 @@
           <t>5189203830</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:39</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44426.41989583334</v>
       </c>
       <c r="I696" t="n">
         <v>25</v>
@@ -51521,10 +50147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:38</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44426.41988425926</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51592,10 +50216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:36</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44426.41986111111</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -51663,10 +50285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:36</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44426.41986111111</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51730,10 +50350,8 @@
           <t>5189205583</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:19</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44426.41966435185</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51797,10 +50415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:18</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44426.41965277777</v>
       </c>
       <c r="I701" t="n">
         <v>1</v>
@@ -51876,10 +50492,8 @@
           <t>5189205549</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:18</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44426.41965277777</v>
       </c>
       <c r="I702" t="n">
         <v>23</v>
@@ -51947,10 +50561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:16</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44426.41962962963</v>
       </c>
       <c r="I703" t="n">
         <v>9</v>
@@ -52014,10 +50626,8 @@
           <t>5189198156</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:04:05</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44426.41950231481</v>
       </c>
       <c r="I704" t="n">
         <v>13</v>
@@ -52089,10 +50699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:03:59</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44426.41943287037</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
@@ -52160,10 +50768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:03:58</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44426.4194212963</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
@@ -52239,10 +50845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:03:56</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44426.41939814815</v>
       </c>
       <c r="I707" t="n">
         <v>1</v>
@@ -52318,10 +50922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:03:35</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44426.41915509259</v>
       </c>
       <c r="I708" t="n">
         <v>2</v>
@@ -52393,10 +50995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:03:33</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44426.41913194444</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -52473,10 +51073,8 @@
           <t>5189193919</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:03:33</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44426.41913194444</v>
       </c>
       <c r="I710" t="n">
         <v>22</v>
@@ -52540,10 +51138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:03:17</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44426.41894675926</v>
       </c>
       <c r="I711" t="n">
         <v>1</v>
@@ -52607,10 +51203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:03:13</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44426.41890046297</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -52674,10 +51268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:41</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44426.41853009259</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -52749,10 +51341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:41</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44426.41853009259</v>
       </c>
       <c r="I714" t="n">
         <v>1</v>
@@ -52824,10 +51414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:37</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44426.4184837963</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
@@ -52891,10 +51479,8 @@
           <t>5189184376</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:34</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44426.41844907407</v>
       </c>
       <c r="I716" t="n">
         <v>3</v>
@@ -52970,10 +51556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:33</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44426.4184375</v>
       </c>
       <c r="I717" t="n">
         <v>1</v>
@@ -53041,10 +51625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:31</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44426.41841435185</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -53112,10 +51694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:30</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44426.41840277778</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -53179,10 +51759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:29</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44426.4183912037</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -53250,10 +51828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:26</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44426.41835648148</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
@@ -53329,10 +51905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:25</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44426.4183449074</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
@@ -53408,10 +51982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:22</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44426.41831018519</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
@@ -53487,10 +52059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:19</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44426.41827546297</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
@@ -53566,10 +52136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:18</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44426.41826388889</v>
       </c>
       <c r="I725" t="n">
         <v>8</v>
@@ -53641,10 +52209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:13</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44426.41820601852</v>
       </c>
       <c r="I726" t="n">
         <v>7</v>
@@ -53720,10 +52286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:11</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44426.41818287037</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -53795,10 +52359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:02:04</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44426.41810185185</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
@@ -53866,10 +52428,8 @@
           <t>5189187651</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:57</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44426.41802083333</v>
       </c>
       <c r="I729" t="n">
         <v>30</v>
@@ -53945,10 +52505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:56</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44426.41800925926</v>
       </c>
       <c r="I730" t="n">
         <v>1</v>
@@ -54016,10 +52574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:55</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44426.41799768519</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
@@ -54095,10 +52651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:53</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44426.41797453703</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
@@ -54170,10 +52724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:49</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44426.41792824074</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
@@ -54245,10 +52797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:44</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44426.41787037037</v>
       </c>
       <c r="I734" t="n">
         <v>6</v>
@@ -54312,10 +52862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:44</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44426.41787037037</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
@@ -54388,10 +52936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:36</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44426.41777777778</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
@@ -54463,10 +53009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:34</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44426.41775462963</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
@@ -54534,10 +53078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:32</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44426.41773148148</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
@@ -54613,10 +53155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:21</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44426.41760416667</v>
       </c>
       <c r="I739" t="n">
         <v>14</v>
@@ -54692,10 +53232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:21</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44426.41760416667</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
@@ -54767,10 +53305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:16</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44426.4175462963</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
@@ -54830,10 +53366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:10</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44426.41747685185</v>
       </c>
       <c r="I742" t="n">
         <v>4</v>
@@ -54897,10 +53431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:08</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44426.4174537037</v>
       </c>
       <c r="I743" t="n">
         <v>1</v>
@@ -54964,10 +53496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:05</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44426.41741898148</v>
       </c>
       <c r="I744" t="n">
         <v>235</v>
@@ -55043,10 +53573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:01:01</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44426.41737268519</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
@@ -55118,10 +53646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:59</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44426.41734953703</v>
       </c>
       <c r="I746" t="n">
         <v>1</v>
@@ -55199,10 +53725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:58</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44426.41733796296</v>
       </c>
       <c r="I747" t="n">
         <v>17</v>
@@ -55274,10 +53798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:55</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44426.41730324074</v>
       </c>
       <c r="I748" t="n">
         <v>2</v>
@@ -55353,10 +53875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:53</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44426.4172800926</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
@@ -55432,10 +53952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:49</t>
-        </is>
+      <c r="H750" s="1" t="n">
+        <v>44426.4172337963</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
@@ -55503,10 +54021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:41</t>
-        </is>
+      <c r="H751" s="1" t="n">
+        <v>44426.4171412037</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
@@ -55578,10 +54094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:40</t>
-        </is>
+      <c r="H752" s="1" t="n">
+        <v>44426.41712962963</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
@@ -55657,10 +54171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:40</t>
-        </is>
+      <c r="H753" s="1" t="n">
+        <v>44426.41712962963</v>
       </c>
       <c r="I753" t="n">
         <v>1</v>
@@ -55736,10 +54248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:40</t>
-        </is>
+      <c r="H754" s="1" t="n">
+        <v>44426.41712962963</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
@@ -55807,10 +54317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:36</t>
-        </is>
+      <c r="H755" s="1" t="n">
+        <v>44426.41708333333</v>
       </c>
       <c r="I755" t="n">
         <v>1854</v>
@@ -55886,10 +54394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:35</t>
-        </is>
+      <c r="H756" s="1" t="n">
+        <v>44426.41707175926</v>
       </c>
       <c r="I756" t="n">
         <v>0</v>
@@ -55961,10 +54467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:32</t>
-        </is>
+      <c r="H757" s="1" t="n">
+        <v>44426.41703703703</v>
       </c>
       <c r="I757" t="n">
         <v>0</v>
@@ -56040,10 +54544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:32</t>
-        </is>
+      <c r="H758" s="1" t="n">
+        <v>44426.41703703703</v>
       </c>
       <c r="I758" t="n">
         <v>1</v>
@@ -56107,10 +54609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2021-08-18 10:00:31</t>
-        </is>
+      <c r="H759" s="1" t="n">
+        <v>44426.41702546296</v>
       </c>
       <c r="I759" t="n">
         <v>1</v>
